--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.141621</v>
+        <v>0.052343</v>
       </c>
       <c r="N2">
-        <v>0.424863</v>
+        <v>0.157029</v>
       </c>
       <c r="O2">
-        <v>0.01840703460373296</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="P2">
-        <v>0.01840703460373296</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="Q2">
-        <v>0.05856203015900001</v>
+        <v>0.03735862980866667</v>
       </c>
       <c r="R2">
-        <v>0.527058271431</v>
+        <v>0.336227668278</v>
       </c>
       <c r="S2">
-        <v>0.003904327455205228</v>
+        <v>0.002733324815309771</v>
       </c>
       <c r="T2">
-        <v>0.003904327455205228</v>
+        <v>0.002733324815309771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.052343</v>
+        <v>1.412104333333333</v>
       </c>
       <c r="N3">
-        <v>0.157029</v>
+        <v>4.236313</v>
       </c>
       <c r="O3">
-        <v>0.006803224184712678</v>
+        <v>0.2123016722182092</v>
       </c>
       <c r="P3">
-        <v>0.006803224184712678</v>
+        <v>0.2123016722182091</v>
       </c>
       <c r="Q3">
-        <v>0.02164447606366667</v>
+        <v>1.007857460218444</v>
       </c>
       <c r="R3">
-        <v>0.194800284573</v>
+        <v>9.070717141966</v>
       </c>
       <c r="S3">
-        <v>0.001443036075072251</v>
+        <v>0.07373936946882031</v>
       </c>
       <c r="T3">
-        <v>0.001443036075072251</v>
+        <v>0.0737393694688203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.9188870000000001</v>
+        <v>0.09532133333333333</v>
       </c>
       <c r="N4">
-        <v>2.756661</v>
+        <v>0.285964</v>
       </c>
       <c r="O4">
-        <v>0.1194313329655938</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="P4">
-        <v>0.1194313329655938</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="Q4">
-        <v>0.3799711074396668</v>
+        <v>0.06803344104977778</v>
       </c>
       <c r="R4">
-        <v>3.419739966957001</v>
+        <v>0.6123009694480001</v>
       </c>
       <c r="S4">
-        <v>0.02533265364833722</v>
+        <v>0.00497763150427783</v>
       </c>
       <c r="T4">
-        <v>0.02533265364833722</v>
+        <v>0.00497763150427783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H5">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5751406666666666</v>
+        <v>3.127199666666666</v>
       </c>
       <c r="N5">
-        <v>1.725422</v>
+        <v>9.381599</v>
       </c>
       <c r="O5">
-        <v>0.07475327919833481</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="P5">
-        <v>0.07475327919833481</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="Q5">
-        <v>0.2378277590682223</v>
+        <v>2.231967878890889</v>
       </c>
       <c r="R5">
-        <v>2.140449831614001</v>
+        <v>20.087710910018</v>
       </c>
       <c r="S5">
-        <v>0.0158559641258832</v>
+        <v>0.1633007747230469</v>
       </c>
       <c r="T5">
-        <v>0.0158559641258832</v>
+        <v>0.1633007747230469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H6">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.649235666666666</v>
+        <v>1.964436333333333</v>
       </c>
       <c r="N6">
-        <v>7.947706999999999</v>
+        <v>5.893309</v>
       </c>
       <c r="O6">
-        <v>0.3443315086729855</v>
+        <v>0.2953415754687206</v>
       </c>
       <c r="P6">
-        <v>0.3443315086729855</v>
+        <v>0.2953415754687205</v>
       </c>
       <c r="Q6">
-        <v>1.095491622073222</v>
+        <v>1.402071905693111</v>
       </c>
       <c r="R6">
-        <v>9.859424598659</v>
+        <v>12.618647151238</v>
       </c>
       <c r="S6">
-        <v>0.07303636853768572</v>
+        <v>0.1025818653496387</v>
       </c>
       <c r="T6">
-        <v>0.07303636853768572</v>
+        <v>0.1025818653496387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4135123333333334</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H7">
-        <v>1.240537</v>
+        <v>1.811317</v>
       </c>
       <c r="I7">
-        <v>0.212110616362585</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J7">
-        <v>0.212110616362585</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.356624666666667</v>
+        <v>0.052343</v>
       </c>
       <c r="N7">
-        <v>10.069874</v>
+        <v>0.157029</v>
       </c>
       <c r="O7">
-        <v>0.4362736203746403</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="P7">
-        <v>0.4362736203746403</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="Q7">
-        <v>1.388005698037556</v>
+        <v>0.03160325524366667</v>
       </c>
       <c r="R7">
-        <v>12.492051282338</v>
+        <v>0.284429297193</v>
       </c>
       <c r="S7">
-        <v>0.09253826652040137</v>
+        <v>0.002312235813906734</v>
       </c>
       <c r="T7">
-        <v>0.09253826652040137</v>
+        <v>0.002312235813906734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.141621</v>
+        <v>1.412104333333333</v>
       </c>
       <c r="N8">
-        <v>0.424863</v>
+        <v>4.236313</v>
       </c>
       <c r="O8">
-        <v>0.01840703460373296</v>
+        <v>0.2123016722182092</v>
       </c>
       <c r="P8">
-        <v>0.01840703460373296</v>
+        <v>0.2123016722182091</v>
       </c>
       <c r="Q8">
-        <v>0.085506841619</v>
+        <v>0.8525895282467778</v>
       </c>
       <c r="R8">
-        <v>0.7695615745710001</v>
+        <v>7.673305754221</v>
       </c>
       <c r="S8">
-        <v>0.005700736610983765</v>
+        <v>0.0623792715837118</v>
       </c>
       <c r="T8">
-        <v>0.005700736610983765</v>
+        <v>0.06237927158371179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.052343</v>
+        <v>0.09532133333333333</v>
       </c>
       <c r="N9">
-        <v>0.157029</v>
+        <v>0.285964</v>
       </c>
       <c r="O9">
-        <v>0.006803224184712678</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="P9">
-        <v>0.006803224184712678</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="Q9">
-        <v>0.03160325524366667</v>
+        <v>0.05755238384311111</v>
       </c>
       <c r="R9">
-        <v>0.284429297193</v>
+        <v>0.517971454588</v>
       </c>
       <c r="S9">
-        <v>0.002106987356597702</v>
+        <v>0.004210790378134137</v>
       </c>
       <c r="T9">
-        <v>0.002106987356597702</v>
+        <v>0.004210790378134137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9188870000000001</v>
+        <v>3.127199666666666</v>
       </c>
       <c r="N10">
-        <v>2.756661</v>
+        <v>9.381599</v>
       </c>
       <c r="O10">
-        <v>0.1194313329655938</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="P10">
-        <v>0.1194313329655938</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="Q10">
-        <v>0.5547985480596668</v>
+        <v>1.888116639542555</v>
       </c>
       <c r="R10">
-        <v>4.993186932537001</v>
+        <v>16.993049755883</v>
       </c>
       <c r="S10">
-        <v>0.03698838987337357</v>
+        <v>0.1381430767534124</v>
       </c>
       <c r="T10">
-        <v>0.03698838987337357</v>
+        <v>0.1381430767534124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,107 +1107,107 @@
         <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5751406666666666</v>
+        <v>1.964436333333333</v>
       </c>
       <c r="N11">
-        <v>1.725422</v>
+        <v>5.893309</v>
       </c>
       <c r="O11">
-        <v>0.07475327919833481</v>
+        <v>0.2953415754687206</v>
       </c>
       <c r="P11">
-        <v>0.07475327919833481</v>
+        <v>0.2953415754687205</v>
       </c>
       <c r="Q11">
-        <v>0.3472540223082222</v>
+        <v>1.186072308661445</v>
       </c>
       <c r="R11">
-        <v>3.125286200774</v>
+        <v>10.674650777953</v>
       </c>
       <c r="S11">
-        <v>0.02315140731199664</v>
+        <v>0.08677836662157234</v>
       </c>
       <c r="T11">
-        <v>0.02315140731199664</v>
+        <v>0.08677836662157233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6037723333333334</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H12">
-        <v>1.811317</v>
+        <v>0.279021</v>
       </c>
       <c r="I12">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J12">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.649235666666666</v>
+        <v>0.052343</v>
       </c>
       <c r="N12">
-        <v>7.947706999999999</v>
+        <v>0.157029</v>
       </c>
       <c r="O12">
-        <v>0.3443315086729855</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="P12">
-        <v>0.3443315086729855</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="Q12">
-        <v>1.599535200013222</v>
+        <v>0.004868265401000001</v>
       </c>
       <c r="R12">
-        <v>14.395816800119</v>
+        <v>0.04381438860900001</v>
       </c>
       <c r="S12">
-        <v>0.1066409272360077</v>
+        <v>0.0003561841185347849</v>
       </c>
       <c r="T12">
-        <v>0.1066409272360077</v>
+        <v>0.0003561841185347849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6037723333333334</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H13">
-        <v>1.811317</v>
+        <v>0.279021</v>
       </c>
       <c r="I13">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J13">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.356624666666667</v>
+        <v>1.412104333333333</v>
       </c>
       <c r="N13">
-        <v>10.069874</v>
+        <v>4.236313</v>
       </c>
       <c r="O13">
-        <v>0.4362736203746403</v>
+        <v>0.2123016722182092</v>
       </c>
       <c r="P13">
-        <v>0.4362736203746403</v>
+        <v>0.2123016722182091</v>
       </c>
       <c r="Q13">
-        <v>2.026637107117556</v>
+        <v>0.1313355877303334</v>
       </c>
       <c r="R13">
-        <v>18.239733964058</v>
+        <v>1.182020289573</v>
       </c>
       <c r="S13">
-        <v>0.1351157888067295</v>
+        <v>0.009609100304672706</v>
       </c>
       <c r="T13">
-        <v>0.1351157888067295</v>
+        <v>0.009609100304672704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H14">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.141621</v>
+        <v>0.09532133333333333</v>
       </c>
       <c r="N14">
-        <v>0.424863</v>
+        <v>0.285964</v>
       </c>
       <c r="O14">
-        <v>0.01840703460373296</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="P14">
-        <v>0.01840703460373296</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="Q14">
-        <v>0.042654923404</v>
+        <v>0.008865551249333333</v>
       </c>
       <c r="R14">
-        <v>0.383894310636</v>
+        <v>0.07978996124400001</v>
       </c>
       <c r="S14">
-        <v>0.002843801488673612</v>
+        <v>0.0006486434688667776</v>
       </c>
       <c r="T14">
-        <v>0.002843801488673612</v>
+        <v>0.0006486434688667775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H15">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.052343</v>
+        <v>3.127199666666666</v>
       </c>
       <c r="N15">
-        <v>0.157029</v>
+        <v>9.381599</v>
       </c>
       <c r="O15">
-        <v>0.006803224184712678</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="P15">
-        <v>0.006803224184712678</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="Q15">
-        <v>0.01576522306533333</v>
+        <v>0.2908514593976667</v>
       </c>
       <c r="R15">
-        <v>0.141887007588</v>
+        <v>2.617663134579</v>
       </c>
       <c r="S15">
-        <v>0.001051066588441283</v>
+        <v>0.02127999649912958</v>
       </c>
       <c r="T15">
-        <v>0.001051066588441283</v>
+        <v>0.02127999649912958</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H16">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9188870000000001</v>
+        <v>1.964436333333333</v>
       </c>
       <c r="N16">
-        <v>2.756661</v>
+        <v>5.893309</v>
       </c>
       <c r="O16">
-        <v>0.1194313329655938</v>
+        <v>0.2953415754687206</v>
       </c>
       <c r="P16">
-        <v>0.1194313329655938</v>
+        <v>0.2953415754687205</v>
       </c>
       <c r="Q16">
-        <v>0.2767601881213334</v>
+        <v>0.1827063300543333</v>
       </c>
       <c r="R16">
-        <v>2.490841693092</v>
+        <v>1.644356970489</v>
       </c>
       <c r="S16">
-        <v>0.01845158711294815</v>
+        <v>0.01336761408031711</v>
       </c>
       <c r="T16">
-        <v>0.01845158711294815</v>
+        <v>0.0133676140803171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H17">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I17">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J17">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.5751406666666666</v>
+        <v>0.052343</v>
       </c>
       <c r="N17">
-        <v>1.725422</v>
+        <v>0.157029</v>
       </c>
       <c r="O17">
-        <v>0.07475327919833481</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="P17">
-        <v>0.07475327919833481</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="Q17">
-        <v>0.1732270008204444</v>
+        <v>0.01382335010833333</v>
       </c>
       <c r="R17">
-        <v>1.559043007384</v>
+        <v>0.124410150975</v>
       </c>
       <c r="S17">
-        <v>0.01154903498819667</v>
+        <v>0.001011378256518852</v>
       </c>
       <c r="T17">
-        <v>0.01154903498819667</v>
+        <v>0.001011378256518852</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H18">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I18">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J18">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.649235666666666</v>
+        <v>1.412104333333333</v>
       </c>
       <c r="N18">
-        <v>7.947706999999999</v>
+        <v>4.236313</v>
       </c>
       <c r="O18">
-        <v>0.3443315086729855</v>
+        <v>0.2123016722182092</v>
       </c>
       <c r="P18">
-        <v>0.3443315086729855</v>
+        <v>0.2123016722182091</v>
       </c>
       <c r="Q18">
-        <v>0.7979250566004443</v>
+        <v>0.3729249868972223</v>
       </c>
       <c r="R18">
-        <v>7.181325509404</v>
+        <v>3.356324882075</v>
       </c>
       <c r="S18">
-        <v>0.05319762134650861</v>
+        <v>0.027284863662178</v>
       </c>
       <c r="T18">
-        <v>0.05319762134650861</v>
+        <v>0.02728486366217799</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H19">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I19">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J19">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>3.356624666666667</v>
+        <v>0.09532133333333333</v>
       </c>
       <c r="N19">
-        <v>10.069874</v>
+        <v>0.285964</v>
       </c>
       <c r="O19">
-        <v>0.4362736203746403</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="P19">
-        <v>0.4362736203746403</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="Q19">
-        <v>1.010984021103111</v>
+        <v>0.02517356978888889</v>
       </c>
       <c r="R19">
-        <v>9.098856189928</v>
+        <v>0.2265621281</v>
       </c>
       <c r="S19">
-        <v>0.06740225124794512</v>
+        <v>0.001841811205236975</v>
       </c>
       <c r="T19">
-        <v>0.06740225124794512</v>
+        <v>0.001841811205236975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H20">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.141621</v>
+        <v>3.127199666666666</v>
       </c>
       <c r="N20">
-        <v>0.424863</v>
+        <v>9.381599</v>
       </c>
       <c r="O20">
-        <v>0.01840703460373296</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="P20">
-        <v>0.01840703460373296</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="Q20">
-        <v>0.060133173533</v>
+        <v>0.8258673719694444</v>
       </c>
       <c r="R20">
-        <v>0.541198561797</v>
+        <v>7.432806347724999</v>
       </c>
       <c r="S20">
-        <v>0.004009075500901679</v>
+        <v>0.06042415884950555</v>
       </c>
       <c r="T20">
-        <v>0.004009075500901679</v>
+        <v>0.06042415884950555</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H21">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.052343</v>
+        <v>1.964436333333333</v>
       </c>
       <c r="N21">
-        <v>0.157029</v>
+        <v>5.893309</v>
       </c>
       <c r="O21">
-        <v>0.006803224184712678</v>
+        <v>0.2953415754687206</v>
       </c>
       <c r="P21">
-        <v>0.006803224184712678</v>
+        <v>0.2953415754687205</v>
       </c>
       <c r="Q21">
-        <v>0.02222516930566667</v>
+        <v>0.5187912653305556</v>
       </c>
       <c r="R21">
-        <v>0.200026523751</v>
+        <v>4.669121387975</v>
       </c>
       <c r="S21">
-        <v>0.001481750862821874</v>
+        <v>0.03795709443190023</v>
       </c>
       <c r="T21">
-        <v>0.001481750862821874</v>
+        <v>0.03795709443190022</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H22">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I22">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J22">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.9188870000000001</v>
+        <v>0.052343</v>
       </c>
       <c r="N22">
-        <v>2.756661</v>
+        <v>0.157029</v>
       </c>
       <c r="O22">
-        <v>0.1194313329655938</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="P22">
-        <v>0.1194313329655938</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="Q22">
-        <v>0.3901652398176668</v>
+        <v>0.01104781019033333</v>
       </c>
       <c r="R22">
-        <v>3.511487158359</v>
+        <v>0.099430291713</v>
       </c>
       <c r="S22">
-        <v>0.02601229591513294</v>
+        <v>0.0008083073148754759</v>
       </c>
       <c r="T22">
-        <v>0.02601229591513294</v>
+        <v>0.0008083073148754758</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H23">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I23">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J23">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.5751406666666666</v>
+        <v>1.412104333333333</v>
       </c>
       <c r="N23">
-        <v>1.725422</v>
+        <v>4.236313</v>
       </c>
       <c r="O23">
-        <v>0.07475327919833481</v>
+        <v>0.2123016722182092</v>
       </c>
       <c r="P23">
-        <v>0.07475327919833481</v>
+        <v>0.2123016722182091</v>
       </c>
       <c r="Q23">
-        <v>0.2442083696242222</v>
+        <v>0.2980467425178889</v>
       </c>
       <c r="R23">
-        <v>2.197875326618</v>
+        <v>2.682420682661</v>
       </c>
       <c r="S23">
-        <v>0.01628135909438284</v>
+        <v>0.02180643566476302</v>
       </c>
       <c r="T23">
-        <v>0.01628135909438284</v>
+        <v>0.02180643566476301</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H24">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I24">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J24">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.649235666666666</v>
+        <v>0.09532133333333333</v>
       </c>
       <c r="N24">
-        <v>7.947706999999999</v>
+        <v>0.285964</v>
       </c>
       <c r="O24">
-        <v>0.3443315086729855</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="P24">
-        <v>0.3443315086729855</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="Q24">
-        <v>1.124882242559222</v>
+        <v>0.02011906076755555</v>
       </c>
       <c r="R24">
-        <v>10.123940183033</v>
+        <v>0.181071546908</v>
       </c>
       <c r="S24">
-        <v>0.07499583965194612</v>
+        <v>0.001472000668609305</v>
       </c>
       <c r="T24">
-        <v>0.07499583965194612</v>
+        <v>0.001472000668609305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H25">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I25">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J25">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.356624666666667</v>
+        <v>3.127199666666666</v>
       </c>
       <c r="N25">
-        <v>10.069874</v>
+        <v>9.381599</v>
       </c>
       <c r="O25">
-        <v>0.4362736203746403</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="P25">
-        <v>0.4362736203746403</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="Q25">
-        <v>1.425244092089556</v>
+        <v>0.6600444824447778</v>
       </c>
       <c r="R25">
-        <v>12.827196828806</v>
+        <v>5.940400342003</v>
       </c>
       <c r="S25">
-        <v>0.09502094828348621</v>
+        <v>0.04829181295766036</v>
       </c>
       <c r="T25">
-        <v>0.09502094828348621</v>
+        <v>0.04829181295766036</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H26">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.141621</v>
+        <v>1.964436333333333</v>
       </c>
       <c r="N26">
-        <v>0.424863</v>
+        <v>5.893309</v>
       </c>
       <c r="O26">
-        <v>0.01840703460373296</v>
+        <v>0.2953415754687206</v>
       </c>
       <c r="P26">
-        <v>0.01840703460373296</v>
+        <v>0.2953415754687205</v>
       </c>
       <c r="Q26">
-        <v>0.010531031974</v>
+        <v>0.4146250643192222</v>
       </c>
       <c r="R26">
-        <v>0.094779287766</v>
+        <v>3.731625578873</v>
       </c>
       <c r="S26">
-        <v>0.0007021033450530636</v>
+        <v>0.030335828245238</v>
       </c>
       <c r="T26">
-        <v>0.0007021033450530636</v>
+        <v>0.03033582824523798</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H27">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I27">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J27">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,27 +2117,27 @@
         <v>0.157029</v>
       </c>
       <c r="O27">
-        <v>0.006803224184712678</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="P27">
-        <v>0.006803224184712678</v>
+        <v>0.007869465567523732</v>
       </c>
       <c r="Q27">
-        <v>0.003892260375333334</v>
+        <v>0.008857238192666667</v>
       </c>
       <c r="R27">
-        <v>0.035030343378</v>
+        <v>0.079715143734</v>
       </c>
       <c r="S27">
-        <v>0.0002594967934848117</v>
+        <v>0.0006480352483781128</v>
       </c>
       <c r="T27">
-        <v>0.0002594967934848117</v>
+        <v>0.0006480352483781127</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H28">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I28">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J28">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.9188870000000001</v>
+        <v>1.412104333333333</v>
       </c>
       <c r="N28">
-        <v>2.756661</v>
+        <v>4.236313</v>
       </c>
       <c r="O28">
-        <v>0.1194313329655938</v>
+        <v>0.2123016722182092</v>
       </c>
       <c r="P28">
-        <v>0.1194313329655938</v>
+        <v>0.2123016722182091</v>
       </c>
       <c r="Q28">
-        <v>0.06832904991133334</v>
+        <v>0.2389497054664445</v>
       </c>
       <c r="R28">
-        <v>0.614961449202</v>
+        <v>2.150547349198</v>
       </c>
       <c r="S28">
-        <v>0.004555494145824239</v>
+        <v>0.01748263153406332</v>
       </c>
       <c r="T28">
-        <v>0.004555494145824239</v>
+        <v>0.01748263153406331</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.1692153333333334</v>
+      </c>
+      <c r="H29">
+        <v>0.507646</v>
+      </c>
+      <c r="I29">
+        <v>0.08234806326016224</v>
+      </c>
+      <c r="J29">
+        <v>0.08234806326016222</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G29">
-        <v>0.07436066666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.223082</v>
-      </c>
-      <c r="I29">
-        <v>0.03814320775551086</v>
-      </c>
-      <c r="J29">
-        <v>0.03814320775551086</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M29">
-        <v>0.5751406666666666</v>
+        <v>0.09532133333333333</v>
       </c>
       <c r="N29">
-        <v>1.725422</v>
+        <v>0.285964</v>
       </c>
       <c r="O29">
-        <v>0.07475327919833481</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="P29">
-        <v>0.07475327919833481</v>
+        <v>0.01433100797656074</v>
       </c>
       <c r="Q29">
-        <v>0.04276784340044445</v>
+        <v>0.01612983119377778</v>
       </c>
       <c r="R29">
-        <v>0.384910590604</v>
+        <v>0.145168480744</v>
       </c>
       <c r="S29">
-        <v>0.002851329858867793</v>
+        <v>0.001180130751435714</v>
       </c>
       <c r="T29">
-        <v>0.002851329858867793</v>
+        <v>0.001180130751435713</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H30">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I30">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J30">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.649235666666666</v>
+        <v>3.127199666666666</v>
       </c>
       <c r="N30">
-        <v>7.947706999999999</v>
+        <v>9.381599</v>
       </c>
       <c r="O30">
-        <v>0.3443315086729855</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="P30">
-        <v>0.3443315086729855</v>
+        <v>0.4701562787689858</v>
       </c>
       <c r="Q30">
-        <v>0.1969989303304444</v>
+        <v>0.5291701339948889</v>
       </c>
       <c r="R30">
-        <v>1.772990372974</v>
+        <v>4.762531205954001</v>
       </c>
       <c r="S30">
-        <v>0.01313390827208217</v>
+        <v>0.03871645898623091</v>
       </c>
       <c r="T30">
-        <v>0.01313390827208217</v>
+        <v>0.03871645898623091</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H31">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I31">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J31">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.356624666666667</v>
+        <v>1.964436333333333</v>
       </c>
       <c r="N31">
-        <v>10.069874</v>
+        <v>5.893309</v>
       </c>
       <c r="O31">
-        <v>0.4362736203746403</v>
+        <v>0.2953415754687206</v>
       </c>
       <c r="P31">
-        <v>0.4362736203746403</v>
+        <v>0.2953415754687205</v>
       </c>
       <c r="Q31">
-        <v>0.2496008479631111</v>
+        <v>0.3324127489571112</v>
       </c>
       <c r="R31">
-        <v>2.246407631668</v>
+        <v>2.991714740614</v>
       </c>
       <c r="S31">
-        <v>0.01664087534019878</v>
+        <v>0.02432080674005418</v>
       </c>
       <c r="T31">
-        <v>0.01664087534019878</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.396211</v>
-      </c>
-      <c r="I32">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J32">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M32">
-        <v>0.141621</v>
-      </c>
-      <c r="N32">
-        <v>0.424863</v>
-      </c>
-      <c r="O32">
-        <v>0.01840703460373296</v>
-      </c>
-      <c r="P32">
-        <v>0.01840703460373296</v>
-      </c>
-      <c r="Q32">
-        <v>0.018703932677</v>
-      </c>
-      <c r="R32">
-        <v>0.168335394093</v>
-      </c>
-      <c r="S32">
-        <v>0.001246990202915607</v>
-      </c>
-      <c r="T32">
-        <v>0.001246990202915607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.396211</v>
-      </c>
-      <c r="I33">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J33">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.052343</v>
-      </c>
-      <c r="N33">
-        <v>0.157029</v>
-      </c>
-      <c r="O33">
-        <v>0.006803224184712678</v>
-      </c>
-      <c r="P33">
-        <v>0.006803224184712678</v>
-      </c>
-      <c r="Q33">
-        <v>0.006912957457666666</v>
-      </c>
-      <c r="R33">
-        <v>0.062216617119</v>
-      </c>
-      <c r="S33">
-        <v>0.0004608865082947557</v>
-      </c>
-      <c r="T33">
-        <v>0.0004608865082947558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.396211</v>
-      </c>
-      <c r="I34">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J34">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.9188870000000001</v>
-      </c>
-      <c r="N34">
-        <v>2.756661</v>
-      </c>
-      <c r="O34">
-        <v>0.1194313329655938</v>
-      </c>
-      <c r="P34">
-        <v>0.1194313329655938</v>
-      </c>
-      <c r="Q34">
-        <v>0.1213577123856667</v>
-      </c>
-      <c r="R34">
-        <v>1.092219411471</v>
-      </c>
-      <c r="S34">
-        <v>0.008090912269977709</v>
-      </c>
-      <c r="T34">
-        <v>0.008090912269977711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.396211</v>
-      </c>
-      <c r="I35">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J35">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M35">
-        <v>0.5751406666666666</v>
-      </c>
-      <c r="N35">
-        <v>1.725422</v>
-      </c>
-      <c r="O35">
-        <v>0.07475327919833481</v>
-      </c>
-      <c r="P35">
-        <v>0.07475327919833481</v>
-      </c>
-      <c r="Q35">
-        <v>0.0759590195602222</v>
-      </c>
-      <c r="R35">
-        <v>0.683631176042</v>
-      </c>
-      <c r="S35">
-        <v>0.00506418381900766</v>
-      </c>
-      <c r="T35">
-        <v>0.005064183819007662</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.396211</v>
-      </c>
-      <c r="I36">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J36">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.649235666666666</v>
-      </c>
-      <c r="N36">
-        <v>7.947706999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.3443315086729855</v>
-      </c>
-      <c r="P36">
-        <v>0.3443315086729855</v>
-      </c>
-      <c r="Q36">
-        <v>0.3498854375752221</v>
-      </c>
-      <c r="R36">
-        <v>3.148968938177</v>
-      </c>
-      <c r="S36">
-        <v>0.02332684362875512</v>
-      </c>
-      <c r="T36">
-        <v>0.02332684362875512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.396211</v>
-      </c>
-      <c r="I37">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J37">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>3.356624666666667</v>
-      </c>
-      <c r="N37">
-        <v>10.069874</v>
-      </c>
-      <c r="O37">
-        <v>0.4362736203746403</v>
-      </c>
-      <c r="P37">
-        <v>0.4362736203746403</v>
-      </c>
-      <c r="Q37">
-        <v>0.4433105386015555</v>
-      </c>
-      <c r="R37">
-        <v>3.989794847414</v>
-      </c>
-      <c r="S37">
-        <v>0.02955549017587926</v>
-      </c>
-      <c r="T37">
-        <v>0.02955549017587927</v>
+        <v>0.02432080674005417</v>
       </c>
     </row>
   </sheetData>
